--- a/Excel/CardPoolItem.xlsx
+++ b/Excel/CardPoolItem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragmentStoneNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,9 +508,10 @@
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -527,8 +536,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,8 +565,11 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,8 +594,11 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>(ROW()-3)+200000</f>
         <v>200001</v>
@@ -604,8 +622,11 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A48" si="0">(ROW()-3)+200000</f>
         <v>200002</v>
@@ -629,8 +650,11 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>200003</v>
@@ -654,8 +678,11 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>200004</v>
@@ -679,8 +706,11 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>200005</v>
@@ -704,8 +734,11 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>200006</v>
@@ -729,8 +762,11 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>200007</v>
@@ -754,8 +790,11 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>200008</v>
@@ -779,8 +818,11 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>200009</v>
@@ -804,8 +846,11 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>200010</v>
@@ -829,8 +874,11 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>200011</v>
@@ -854,8 +902,11 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>200012</v>
@@ -879,8 +930,11 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>200013</v>
@@ -904,8 +958,11 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>200014</v>
@@ -929,8 +986,11 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>200015</v>
@@ -954,8 +1014,11 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>200016</v>
@@ -979,8 +1042,11 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>200017</v>
@@ -1004,8 +1070,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>200018</v>
@@ -1029,8 +1098,11 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>200019</v>
@@ -1054,8 +1126,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>200020</v>
@@ -1079,8 +1154,11 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>200021</v>
@@ -1104,8 +1182,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>200022</v>
@@ -1129,8 +1210,11 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>200023</v>
@@ -1154,8 +1238,11 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>200024</v>
@@ -1179,8 +1266,11 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>200025</v>
@@ -1204,8 +1294,11 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>200026</v>
@@ -1229,8 +1322,11 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>200027</v>
@@ -1254,8 +1350,11 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>200028</v>
@@ -1279,8 +1378,11 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>200029</v>
@@ -1304,8 +1406,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>200030</v>
@@ -1329,8 +1434,11 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>200031</v>
@@ -1354,8 +1462,11 @@
       <c r="H34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>200032</v>
@@ -1379,8 +1490,11 @@
       <c r="H35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>200033</v>
@@ -1404,8 +1518,11 @@
       <c r="H36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>200034</v>
@@ -1429,8 +1546,11 @@
       <c r="H37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>200035</v>
@@ -1454,8 +1574,11 @@
       <c r="H38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>200036</v>
@@ -1479,8 +1602,11 @@
       <c r="H39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>200037</v>
@@ -1504,8 +1630,11 @@
       <c r="H40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>200038</v>
@@ -1529,8 +1658,11 @@
       <c r="H41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>200039</v>
@@ -1554,8 +1686,11 @@
       <c r="H42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>200040</v>
@@ -1579,8 +1714,11 @@
       <c r="H43" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>200041</v>
@@ -1604,8 +1742,11 @@
       <c r="H44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>200042</v>
@@ -1629,8 +1770,11 @@
       <c r="H45" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>200043</v>
@@ -1654,8 +1798,11 @@
       <c r="H46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>200044</v>
@@ -1679,8 +1826,11 @@
       <c r="H47" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>200045</v>
@@ -1703,6 +1853,9 @@
       </c>
       <c r="H48" s="4">
         <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
